--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_7_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_7_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-280533.6627588379</v>
+        <v>-283461.8799571199</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8656875.781858979</v>
+        <v>8656875.781858971</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673437</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,10 +659,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>100.9506156204273</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>285.779660182836</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>243.7318279808887</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>342.9143046276157</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>223.1498336210773</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>203.1609600883624</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,16 +902,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>313.5708165599417</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>315.0795494993948</v>
       </c>
     </row>
     <row r="6">
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>9.22084658737597</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>70.26541886851864</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>183.9939792522733</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>119.2609810113634</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>224.7502551838229</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>7.511689643934695</v>
       </c>
     </row>
     <row r="11">
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>116.1752591856731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>202.4425172951282</v>
       </c>
     </row>
     <row r="14">
@@ -1622,10 +1622,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873206</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292652</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881762</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396202</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174132</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851122</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247769</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734103036</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414548</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>37.59657533957168</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>17.25588147839558</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.769025331442</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1859,10 +1859,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873206</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292601</v>
+        <v>41.5769297729266</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881762</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396202</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851125</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247774</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734104173</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414548</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.769025331442</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>70.5709242795737</v>
       </c>
       <c r="U19" t="n">
-        <v>275.8109711987819</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2096,10 +2096,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873206</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292618</v>
+        <v>41.5769297729266</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881762</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396202</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851119</v>
+        <v>89.59687541851125</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247755</v>
+        <v>18.81721868247774</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734100478</v>
+        <v>0.1429098734104173</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414548</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>74.75769145491594</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983817</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004769</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.769025331442</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>205.7064834889259</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292618</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851119</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247755</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734100478</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983817</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S25" t="n">
-        <v>189.769025331442</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>149.5546276036598</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>15.42290135054989</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>144.6100405317613</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>226.9209802325182</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>27.24739666248491</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>25.7319404949734</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,10 +3241,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>172.1659031415427</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>66.25628701154712</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>116.4636264596498</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,10 +3472,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3554,7 +3554,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3709,22 +3709,22 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>173.9610973318237</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>44.30292280757614</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808248</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1592.521604602636</v>
+        <v>1312.057733484295</v>
       </c>
       <c r="C2" t="n">
-        <v>1592.521604602636</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D2" t="n">
-        <v>1234.255905995886</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E2" t="n">
-        <v>1234.255905995886</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>823.270001206278</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>1965.987362863716</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W2" t="n">
-        <v>1965.987362863716</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="X2" t="n">
-        <v>1592.521604602636</v>
+        <v>1702.197065460107</v>
       </c>
       <c r="Y2" t="n">
-        <v>1592.521604602636</v>
+        <v>1312.057733484295</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4413,7 +4413,7 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417901</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4513,22 +4513,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>259.1560728187103</v>
       </c>
       <c r="W4" t="n">
-        <v>502.7251118619119</v>
+        <v>259.1560728187103</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
         <v>53.94298182036445</v>
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1167.455337753612</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C5" t="n">
-        <v>1167.455337753612</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D5" t="n">
-        <v>1167.455337753612</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E5" t="n">
-        <v>781.6670851553677</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>370.6811803657601</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.752638628377</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>1893.689751284806</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>1540.921096014692</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X5" t="n">
-        <v>1167.455337753612</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y5" t="n">
-        <v>1167.455337753612</v>
+        <v>1210.087414675782</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,13 +4644,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>63.25696827225937</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C7" t="n">
-        <v>63.25696827225937</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D7" t="n">
-        <v>63.25696827225937</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>63.25696827225937</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>63.25696827225937</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>63.25696827225937</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>63.25696827225937</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>63.25696827225937</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>352.67413830922</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U7" t="n">
-        <v>352.67413830922</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V7" t="n">
-        <v>352.67413830922</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W7" t="n">
-        <v>63.25696827225937</v>
+        <v>429.8456263007749</v>
       </c>
       <c r="X7" t="n">
-        <v>63.25696827225937</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y7" t="n">
-        <v>63.25696827225937</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1210.087414675782</v>
+        <v>932.2014054355411</v>
       </c>
       <c r="C8" t="n">
-        <v>1210.087414675782</v>
+        <v>932.2014054355411</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.087414675782</v>
+        <v>573.9357068287907</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>573.9357068287907</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>566.9902060795872</v>
       </c>
       <c r="G8" t="n">
         <v>381.1377017843616</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V8" t="n">
-        <v>2443.387305656314</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W8" t="n">
-        <v>2090.6186503862</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="X8" t="n">
-        <v>1717.15289212512</v>
+        <v>1322.340737411353</v>
       </c>
       <c r="Y8" t="n">
-        <v>1596.687254739904</v>
+        <v>932.2014054355411</v>
       </c>
     </row>
     <row r="9">
@@ -4893,13 +4893,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>211.6913543878343</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C10" t="n">
-        <v>211.6913543878343</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4990,22 +4990,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694736</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="X10" t="n">
-        <v>211.6913543878343</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="Y10" t="n">
-        <v>211.6913543878343</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5042,22 +5042,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>2368.748013620956</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807096</v>
+        <v>3348.500285847603</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q11" t="n">
         <v>4719.034655862919</v>
@@ -5066,25 +5066,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="12">
@@ -5094,64 +5094,64 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>901.3723255570255</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C13" t="n">
-        <v>784.0235789048305</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>633.9069394924948</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>485.9938459101016</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5200,7 +5200,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5212,37 +5212,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T13" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U13" t="n">
-        <v>1445.473983799873</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V13" t="n">
-        <v>1190.789495593986</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W13" t="n">
-        <v>901.3723255570255</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X13" t="n">
-        <v>901.3723255570255</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y13" t="n">
-        <v>901.3723255570255</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="14">
@@ -5255,55 +5255,55 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551628</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001593</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089263</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074197</v>
+        <v>451.8458144277716</v>
       </c>
       <c r="K14" t="n">
-        <v>618.259539097266</v>
+        <v>1106.569146563069</v>
       </c>
       <c r="L14" t="n">
-        <v>1482.778354750621</v>
+        <v>1971.087962216422</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.328657580449</v>
+        <v>2504.619866888343</v>
       </c>
       <c r="N14" t="n">
-        <v>3441.080929807095</v>
+        <v>3130.950021746358</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750059</v>
+        <v>4010.91467207581</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432986</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
         <v>4461.783306331038</v>
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973185</v>
+        <v>970.59277249732</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161915</v>
+        <v>796.139743216193</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549404</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494848</v>
+        <v>487.9678785494863</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763699</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089885</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468567</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939011</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193587</v>
+        <v>427.502502919357</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320332</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454347</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.0000320088</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.961311426853</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902954</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.56840828234</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>414.6138567886371</v>
+        <v>260.9043113422982</v>
       </c>
       <c r="C16" t="n">
-        <v>245.6776738607302</v>
+        <v>260.9043113422982</v>
       </c>
       <c r="D16" t="n">
-        <v>95.56103444839442</v>
+        <v>260.9043113422982</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839442</v>
+        <v>112.9912177599051</v>
       </c>
       <c r="F16" t="n">
         <v>95.56103444839442</v>
@@ -5434,52 +5434,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.6836668953299</v>
+        <v>140.6836668953295</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442051</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927004</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892248</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598112</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.125669518525</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952183</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104697</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104697</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.657581931524</v>
       </c>
       <c r="T16" t="n">
-        <v>1734.576850674229</v>
+        <v>1542.890966501049</v>
       </c>
       <c r="U16" t="n">
-        <v>1445.473983799872</v>
+        <v>1253.788099626693</v>
       </c>
       <c r="V16" t="n">
-        <v>1190.789495593985</v>
+        <v>999.1036114208063</v>
       </c>
       <c r="W16" t="n">
-        <v>901.3723255570246</v>
+        <v>709.6864413838457</v>
       </c>
       <c r="X16" t="n">
-        <v>673.3827746590073</v>
+        <v>481.6968904858284</v>
       </c>
       <c r="Y16" t="n">
-        <v>452.5901955154771</v>
+        <v>260.9043113422982</v>
       </c>
     </row>
     <row r="17">
@@ -5492,49 +5492,49 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551629</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001594</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074197</v>
+        <v>451.8458144277714</v>
       </c>
       <c r="K17" t="n">
-        <v>618.259539097266</v>
+        <v>785.6651881176156</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1236.699401366022</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.328657580449</v>
+        <v>2215.249704195847</v>
       </c>
       <c r="N17" t="n">
-        <v>3008.107474639231</v>
+        <v>3195.001976422491</v>
       </c>
       <c r="O17" t="n">
-        <v>3888.072124968685</v>
+        <v>3865.782086996758</v>
       </c>
       <c r="P17" t="n">
-        <v>4405.689038432984</v>
+        <v>4260.556453353934</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.03465586292</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5546,19 +5546,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5568,52 +5568,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973202</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161932</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549419</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494864</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763713</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390109</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193566</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320255</v>
+        <v>794.2006632320349</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.476988454348</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008801</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426853</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902954</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5622,7 +5622,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U18" t="n">
         <v>2043.809373447819</v>
@@ -5631,7 +5631,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X18" t="n">
         <v>1346.568408282342</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>730.2297869963112</v>
+        <v>411.3871648742117</v>
       </c>
       <c r="C19" t="n">
-        <v>561.2936040684043</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D19" t="n">
-        <v>411.1769646560685</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E19" t="n">
-        <v>263.2638710736754</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
         <v>95.56103444839442</v>
@@ -5671,52 +5671,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.6836668953299</v>
+        <v>140.6836668953295</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442049</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482926999</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892248</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598111</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.125669518524</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952182</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104696</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104696</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.657581931522</v>
       </c>
       <c r="T19" t="n">
-        <v>1734.576850674229</v>
+        <v>1693.373820032963</v>
       </c>
       <c r="U19" t="n">
-        <v>1455.979910069399</v>
+        <v>1404.270953158607</v>
       </c>
       <c r="V19" t="n">
-        <v>1201.295421863512</v>
+        <v>1149.58646495272</v>
       </c>
       <c r="W19" t="n">
-        <v>911.8782518265509</v>
+        <v>860.1692949157591</v>
       </c>
       <c r="X19" t="n">
-        <v>911.8782518265509</v>
+        <v>632.1797440177418</v>
       </c>
       <c r="Y19" t="n">
-        <v>911.8782518265509</v>
+        <v>411.3871648742117</v>
       </c>
     </row>
     <row r="20">
@@ -5732,46 +5732,46 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551623</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
         <v>435.1415336001588</v>
       </c>
       <c r="H20" t="n">
-        <v>137.557933208926</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277724</v>
+        <v>304.0396960664698</v>
       </c>
       <c r="K20" t="n">
-        <v>785.665188117618</v>
+        <v>637.8590697563141</v>
       </c>
       <c r="L20" t="n">
-        <v>1236.699401366026</v>
+        <v>1088.89328300472</v>
       </c>
       <c r="M20" t="n">
-        <v>2215.249704195853</v>
+        <v>1622.425187676642</v>
       </c>
       <c r="N20" t="n">
-        <v>3195.001976422499</v>
+        <v>2602.177459903285</v>
       </c>
       <c r="O20" t="n">
-        <v>3697.974447301835</v>
+        <v>3482.142110232737</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679679</v>
+        <v>4195.497197679681</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5805,52 +5805,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973202</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161932</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549419</v>
       </c>
       <c r="E21" t="n">
-        <v>487.967878549486</v>
+        <v>487.9678785494864</v>
       </c>
       <c r="F21" t="n">
-        <v>341.433320576371</v>
+        <v>341.4333205763713</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468566</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390172</v>
+        <v>189.2383039390109</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193638</v>
+        <v>427.5025029193566</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320284</v>
+        <v>794.2006632320199</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.476988454343</v>
+        <v>1241.476988454333</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008797</v>
+        <v>1715.000032008801</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426851</v>
+        <v>2125.961311426853</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902954</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5859,7 +5859,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U21" t="n">
         <v>2043.809373447819</v>
@@ -5868,7 +5868,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X21" t="n">
         <v>1346.568408282342</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>511.9395339702918</v>
+        <v>171.0738540998247</v>
       </c>
       <c r="C22" t="n">
-        <v>343.0033510423849</v>
+        <v>171.0738540998247</v>
       </c>
       <c r="D22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.6836668953298</v>
+        <v>140.6836668953295</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442058</v>
+        <v>344.6708498442049</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927015</v>
+        <v>661.2306482926999</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.38769389225</v>
+        <v>1005.387693892248</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598114</v>
+        <v>1346.796070598111</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518527</v>
+        <v>1646.125669518524</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952186</v>
+        <v>1878.733169952182</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104701</v>
+        <v>1956.343466104696</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104701</v>
+        <v>1866.513008862224</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104701</v>
+        <v>1674.82712468905</v>
       </c>
       <c r="T22" t="n">
-        <v>1734.576850674227</v>
+        <v>1453.060509258576</v>
       </c>
       <c r="U22" t="n">
-        <v>1445.47398379987</v>
+        <v>1163.95764238422</v>
       </c>
       <c r="V22" t="n">
-        <v>1190.789495593983</v>
+        <v>909.2731541783327</v>
       </c>
       <c r="W22" t="n">
-        <v>901.3723255570224</v>
+        <v>619.8559841413721</v>
       </c>
       <c r="X22" t="n">
-        <v>693.5879988005315</v>
+        <v>391.8664332433548</v>
       </c>
       <c r="Y22" t="n">
-        <v>693.5879988005315</v>
+        <v>171.0738540998247</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089259</v>
+        <v>137.5579332089262</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074194</v>
+        <v>284.4401654074201</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972649</v>
+        <v>939.1634975427198</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750619</v>
+        <v>1803.682313196075</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.328657580446</v>
+        <v>2439.038619608514</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807092</v>
+        <v>2985.817436667297</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.97392775006</v>
+        <v>3865.782086996752</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107238</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6042,49 +6042,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.967878549486</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F24" t="n">
-        <v>341.433320576371</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468566</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390114</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.502502919358</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320226</v>
+        <v>794.2006632320232</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.476988454338</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008791</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426845</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902947</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
@@ -6099,7 +6099,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>659.8526275526849</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C25" t="n">
-        <v>490.916444624778</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D25" t="n">
-        <v>340.7998052124423</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E25" t="n">
-        <v>192.8867116300491</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F25" t="n">
-        <v>192.8867116300491</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.6836668953298</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442058</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927015</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.38769389225</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598114</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518527</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952186</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104701</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104701</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.657581931527</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T25" t="n">
-        <v>1613.59230152379</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="U25" t="n">
-        <v>1613.59230152379</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>1358.907813317903</v>
+        <v>909.2731541783413</v>
       </c>
       <c r="W25" t="n">
-        <v>1069.490643280942</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X25" t="n">
-        <v>841.5010923829246</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y25" t="n">
-        <v>841.5010923829246</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="26">
@@ -6215,22 +6215,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
         <v>2206.55866301478</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O27" t="n">
         <v>2129.438138565707</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>696.7084350851671</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C28" t="n">
-        <v>696.7084350851671</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D28" t="n">
-        <v>696.7084350851671</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E28" t="n">
-        <v>548.795341502774</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1526.218446256326</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>1236.801276219365</v>
       </c>
       <c r="X28" t="n">
-        <v>1099.149479058937</v>
+        <v>1008.811725321348</v>
       </c>
       <c r="Y28" t="n">
-        <v>878.3568999154069</v>
+        <v>788.0191461778176</v>
       </c>
     </row>
     <row r="29">
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>583.3384263047943</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>435.4253327224012</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>288.5353852244908</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>121.3392859393708</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U31" t="n">
-        <v>2018.514925172274</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V31" t="n">
-        <v>2018.514925172274</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="32">
@@ -6686,19 +6686,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M33" t="n">
-        <v>738.7889117913853</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N33" t="n">
-        <v>1366.386875345992</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O33" t="n">
-        <v>1918.296605585279</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2341.919755080347</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>950.7540666811333</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>781.8178837532264</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>631.7012443408906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>198.744407872558</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1870.601831589881</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1581.18466155292</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6923,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L36" t="n">
-        <v>577.3880777468471</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>916.3099000622261</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C37" t="n">
-        <v>747.3737171343192</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D37" t="n">
-        <v>597.2570777219835</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E37" t="n">
-        <v>449.3439841395904</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="F37" t="n">
-        <v>302.45403664168</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>211.4566897748909</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7120,25 +7120,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,19 +7251,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O39" t="n">
         <v>1896.176478190825</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>810.0653816078141</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C40" t="n">
-        <v>641.1291986799072</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D40" t="n">
-        <v>491.0125592675714</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E40" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1984.597634722449</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1729.913146516562</v>
+        <v>1643.635426776346</v>
       </c>
       <c r="W40" t="n">
-        <v>1440.495976479601</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="X40" t="n">
-        <v>1212.506425581584</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y40" t="n">
-        <v>991.7138464380538</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="41">
@@ -7397,34 +7397,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7570,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7646,22 +7646,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8061,10 +8061,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>327.4218609627885</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,10 +8690,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8702,13 +8702,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>133.2530576400255</v>
+        <v>14.45386895940771</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8924,22 +8924,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>80.35488666589356</v>
       </c>
       <c r="O14" t="n">
-        <v>133.2530576400276</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>169.5026663585185</v>
       </c>
       <c r="P17" t="n">
-        <v>124.0833809162837</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>19.79750571621358</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9407,16 +9407,16 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>103.7862464855223</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9638,25 +9638,25 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>102.8529310510245</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>133.253057640033</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>264.3222761505803</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22604,7 +22604,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>84.02043048924617</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22705,28 +22705,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>22.54869530067478</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.831980181936</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>51.07156191295478</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>16.14213605696662</v>
       </c>
     </row>
     <row r="14">
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>142.2354048423656</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>128.1651665445357</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -23671,7 +23671,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983829</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004763</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314414</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983833</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004769</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>148.9780249965955</v>
       </c>
       <c r="U19" t="n">
-        <v>10.40086700683094</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>73.85778156329641</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24145,7 +24145,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983833</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004746</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.769025331442</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>20.00317190011125</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004746</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>69.99432167250939</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>271.1000969860411</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.811007491169903</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>25.21666309130984</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>113.047316183739</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24883,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>260.4525338942707</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>36.41624546988359</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,10 +25129,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>79.97174018228532</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25309,25 +25309,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>99.26785128072173</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>23.83108638657407</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25360,10 +25360,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25597,22 +25597,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>112.2233770574204</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>207.8347205162519</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>-5.044853423896711e-13</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1159058.251899557</v>
+        <v>1159058.251899558</v>
       </c>
     </row>
     <row r="3">
@@ -26314,25 +26314,25 @@
         <v>274263.2212881114</v>
       </c>
       <c r="C2" t="n">
-        <v>287364.6194524997</v>
+        <v>287364.6194524994</v>
       </c>
       <c r="D2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524992</v>
       </c>
       <c r="E2" t="n">
         <v>277957.2508208881</v>
       </c>
       <c r="F2" t="n">
-        <v>277957.2508208881</v>
+        <v>277957.250820888</v>
       </c>
       <c r="G2" t="n">
         <v>277957.2508208881</v>
       </c>
       <c r="H2" t="n">
-        <v>277957.2508208884</v>
+        <v>277957.250820888</v>
       </c>
       <c r="I2" t="n">
-        <v>277957.2508208884</v>
+        <v>277957.2508208882</v>
       </c>
       <c r="J2" t="n">
         <v>282501.3098915021</v>
@@ -26341,13 +26341,13 @@
         <v>282501.3098915021</v>
       </c>
       <c r="L2" t="n">
+        <v>282501.3098915022</v>
+      </c>
+      <c r="M2" t="n">
         <v>282501.3098915021</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>282501.3098915023</v>
-      </c>
-      <c r="N2" t="n">
-        <v>282501.3098915021</v>
       </c>
       <c r="O2" t="n">
         <v>287364.6194524993</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-1.029229106619217e-09</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.594261443140568e-09</v>
       </c>
       <c r="J3" t="n">
-        <v>376527.1335735925</v>
+        <v>376527.133573591</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179699.2295958969</v>
+        <v>179699.2295958971</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
       </c>
       <c r="D4" t="n">
-        <v>201064.5059277315</v>
+        <v>201064.5059277316</v>
       </c>
       <c r="E4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499384</v>
       </c>
       <c r="F4" t="n">
-        <v>25090.72367499385</v>
+        <v>25090.72367499407</v>
       </c>
       <c r="G4" t="n">
-        <v>25090.72367499385</v>
+        <v>25090.72367499415</v>
       </c>
       <c r="H4" t="n">
-        <v>25090.72367499392</v>
+        <v>25090.7236749941</v>
       </c>
       <c r="I4" t="n">
-        <v>25090.72367499393</v>
+        <v>25090.72367499378</v>
       </c>
       <c r="J4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="K4" t="n">
-        <v>5067.592601670436</v>
+        <v>5067.592601670438</v>
       </c>
       <c r="L4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670445</v>
       </c>
       <c r="M4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670438</v>
       </c>
       <c r="N4" t="n">
-        <v>5067.592601670461</v>
+        <v>5067.592601670422</v>
       </c>
       <c r="O4" t="n">
-        <v>13058.45186476393</v>
+        <v>13058.45186476391</v>
       </c>
       <c r="P4" t="n">
         <v>13058.4518647639</v>
@@ -26476,19 +26476,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371358</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371356</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371361</v>
+        <v>96383.51825371356</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371361</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-578262.9655857395</v>
+        <v>-578356.5470011996</v>
       </c>
       <c r="C6" t="n">
-        <v>3441.035461358668</v>
+        <v>3441.035461358377</v>
       </c>
       <c r="D6" t="n">
-        <v>3441.03546135826</v>
+        <v>3441.035461358173</v>
       </c>
       <c r="E6" t="n">
-        <v>-570894.4051012262</v>
+        <v>-570961.6005914519</v>
       </c>
       <c r="F6" t="n">
-        <v>156483.008892181</v>
+        <v>156415.8134019572</v>
       </c>
       <c r="G6" t="n">
-        <v>156483.0088921807</v>
+        <v>156415.8134019551</v>
       </c>
       <c r="H6" t="n">
-        <v>156483.0088921817</v>
+        <v>156415.8134019546</v>
       </c>
       <c r="I6" t="n">
-        <v>156483.0088921809</v>
+        <v>156415.8134019513</v>
       </c>
       <c r="J6" t="n">
-        <v>-200215.9461076679</v>
+        <v>-200250.6840331021</v>
       </c>
       <c r="K6" t="n">
-        <v>176311.1874659246</v>
+        <v>176276.4495404888</v>
       </c>
       <c r="L6" t="n">
-        <v>176311.1874659245</v>
+        <v>176276.4495404889</v>
       </c>
       <c r="M6" t="n">
-        <v>46668.87262697994</v>
+        <v>46634.13470154407</v>
       </c>
       <c r="N6" t="n">
-        <v>176311.1874659245</v>
+        <v>176276.449540489</v>
       </c>
       <c r="O6" t="n">
         <v>151714.3337401882</v>
@@ -26722,7 +26722,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203971</v>
@@ -26738,7 +26738,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26747,16 +26747,16 @@
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593295</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593294</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593297</v>
+        <v>1089.776700593294</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593297</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="J3" t="n">
         <v>1367.975500341674</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,22 +26966,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762117</v>
+        <v>712.0330363762115</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-1.700460102594075e-12</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-6.821210263296962e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>-6.752814779368692e-14</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.774847184307873e-12</v>
       </c>
       <c r="J3" t="n">
-        <v>278.198799748377</v>
+        <v>278.198799748375</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27379,10 +27379,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>128.004509837959</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>26.81679605085333</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,28 +27537,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27594,16 +27594,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>63.3731647155137</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27622,16 +27622,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>100.2133534608533</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>71.15838915665881</v>
       </c>
     </row>
     <row r="6">
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>35.97911260116103</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>216.2575794680724</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>229.7901907685217</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>266.9769576446902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,7 +28026,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923383</v>
@@ -28062,22 +28062,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0.9594002052142798</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>211.0729637081601</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28533,7 +28533,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>5.655920176650397e-13</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681583</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844653</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.8989597974794</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953976</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003791</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623191</v>
+        <v>691.356529362317</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574969</v>
       </c>
       <c r="N14" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990094997</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099035</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746392</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781674</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356356</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806918</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451114</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345266</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502559</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798524</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752231</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026431</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353145</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138906</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233455</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837904</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970232</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002912</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987477</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905536</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238302</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898467</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.154213684046221</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430531</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311873</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451741999</v>
       </c>
       <c r="J16" t="n">
-        <v>138.9375967297389</v>
+        <v>138.9375967297385</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702017</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909881</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316422</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883105</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023085992</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802161</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895875</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712186</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553025</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112267</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780291</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681596</v>
+        <v>4.38101186168158</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844665</v>
+        <v>44.8670377284465</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.8989597974793</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953974</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003788</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623166</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574964</v>
       </c>
       <c r="N17" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990094993</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099056</v>
+        <v>738.151212309903</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746389</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781671</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563558</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806911</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451113</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345264</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502557</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798522</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752225</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026429</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353142</v>
       </c>
       <c r="L18" t="n">
-        <v>508.956561913881</v>
+        <v>508.9565619138926</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233451</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837921</v>
+        <v>609.64781668379</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970228</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002909</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987475</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905535</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238299</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898494</v>
+        <v>9.44815837589846</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462209</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.96517109943053</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311872</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451741995</v>
       </c>
       <c r="J19" t="n">
-        <v>138.9375967297389</v>
+        <v>138.9375967297385</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702015</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.1673469098808</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316421</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883103</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.768002308599</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802168</v>
+        <v>237.678511880216</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895874</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712211</v>
+        <v>88.3612387071218</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553022</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112262</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.107191150878029</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681592</v>
+        <v>4.38101186168158</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844661</v>
+        <v>44.8670377284465</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974797</v>
+        <v>168.8989597974793</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953983</v>
+        <v>371.8329054953974</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003801</v>
+        <v>557.2811376003788</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623184</v>
+        <v>691.3565293623166</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574983</v>
+        <v>769.2673490574964</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095012</v>
+        <v>781.7148990094993</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099048</v>
+        <v>738.151212309903</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746404</v>
+        <v>629.9949819746389</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781683</v>
+        <v>473.0999946781671</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563565</v>
+        <v>275.1987363563558</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806937</v>
+        <v>99.83230779806911</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451118</v>
+        <v>19.17787942451113</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345272</v>
+        <v>0.3504809489345264</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502563</v>
+        <v>2.344047997502557</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798528</v>
+        <v>22.63856881798522</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752245</v>
+        <v>80.70516131752225</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026493</v>
+        <v>221.4611312026429</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353151</v>
+        <v>378.5123470353142</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138789</v>
+        <v>508.9565619138776</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233466</v>
+        <v>593.9283018233451</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837916</v>
+        <v>609.6478166838052</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970242</v>
+        <v>557.7086478970228</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002921</v>
+        <v>447.6103584002909</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987482</v>
+        <v>299.2156706987475</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905539</v>
+        <v>145.5365940905535</v>
       </c>
       <c r="S21" t="n">
-        <v>43.5396634623831</v>
+        <v>43.53966346238299</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898485</v>
+        <v>9.44815837589846</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1542136840462213</v>
+        <v>0.1542136840462209</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430535</v>
+        <v>1.96517109943053</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311877</v>
+        <v>17.47215759311872</v>
       </c>
       <c r="I22" t="n">
-        <v>59.0980545174201</v>
+        <v>59.09805451741995</v>
       </c>
       <c r="J22" t="n">
-        <v>138.9375967297388</v>
+        <v>138.9375967297385</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702021</v>
+        <v>228.3171513702015</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098816</v>
+        <v>292.1673469098808</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316428</v>
+        <v>308.0495024316421</v>
       </c>
       <c r="N22" t="n">
-        <v>300.724773788311</v>
+        <v>300.7247737883103</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023085997</v>
+        <v>277.768002308599</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802166</v>
+        <v>237.678511880216</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895878</v>
+        <v>164.5562817895874</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712203</v>
+        <v>88.3612387071218</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553031</v>
+        <v>34.24757270553022</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112283</v>
+        <v>8.396640152112262</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780293</v>
+        <v>0.107191150878029</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681592</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844661</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974797</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054953983</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003801</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623184</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574983</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095012</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099048</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746404</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781683</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563565</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806937</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T23" t="n">
-        <v>19.17787942451118</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345272</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502563</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798528</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752245</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026435</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353151</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138789</v>
+        <v>508.9565619138783</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233466</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837916</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970242</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002921</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.215670698754</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905539</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S24" t="n">
-        <v>43.5396634623831</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898485</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1542136840462213</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430535</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.47215759311877</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I25" t="n">
-        <v>59.0980545174201</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J25" t="n">
-        <v>138.9375967297388</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702021</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098816</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316428</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N25" t="n">
-        <v>300.724773788311</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023085997</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802166</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.5562817895878</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712203</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553031</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112283</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780293</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,16 +33020,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>308.1572428165614</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33257,25 +33257,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>556.532545233504</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33284,7 +33284,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33503,10 +33503,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>209.9499448422525</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33518,10 +33518,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>353.2560498238277</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,19 +33731,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,13 +33752,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>290.1088399635148</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,22 +33971,22 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -34205,13 +34205,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>531.2627466777524</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34445,31 +34445,31 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34781,10 +34781,10 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338903</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35261,7 +35261,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245897</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O11" t="n">
-        <v>641.3060585282446</v>
+        <v>522.5068698476267</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35580,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687124</v>
+        <v>359.8836161407851</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554003</v>
+        <v>661.3366991265633</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427823</v>
+        <v>873.2513289427802</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230589</v>
+        <v>538.9211158302242</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248953</v>
+        <v>632.6567220788023</v>
       </c>
       <c r="O14" t="n">
-        <v>641.3060585282465</v>
+        <v>888.8531821509621</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193697</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037179</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222467</v>
+        <v>125.3296184152063</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597637</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609555</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340164</v>
       </c>
       <c r="M15" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013271</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004572</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525787</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859623</v>
+        <v>313.635950985961</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306577</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443188</v>
       </c>
       <c r="L16" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701972</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934828</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675399</v>
+        <v>344.856946167539</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226389</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451096</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789312</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687124</v>
+        <v>359.8836161407849</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865553982</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427823</v>
+        <v>455.5901143923293</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230589</v>
+        <v>988.4346493230562</v>
       </c>
       <c r="N17" t="n">
-        <v>552.301835412911</v>
+        <v>989.6487598248925</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509642</v>
+        <v>677.5556672467347</v>
       </c>
       <c r="P17" t="n">
-        <v>522.8453671356552</v>
+        <v>398.7619862193694</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037193</v>
+        <v>463.1092954636223</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152071</v>
+        <v>59.6131985422237</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597622</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609552</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340069</v>
+        <v>370.4021821340185</v>
       </c>
       <c r="M18" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013268</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004567</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525784</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859607</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.233896612727</v>
+        <v>159.233896612726</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306568</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443187</v>
       </c>
       <c r="L19" t="n">
-        <v>319.757372170198</v>
+        <v>319.757372170197</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934826</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675389</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226387</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451095</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789357</v>
+        <v>78.394238537893</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407858</v>
+        <v>210.5845066849247</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865553996</v>
+        <v>337.1912865553982</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923311</v>
+        <v>455.5901143923293</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230581</v>
+        <v>538.9211158302237</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248945</v>
+        <v>989.6487598248925</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882181</v>
+        <v>888.8531821509616</v>
       </c>
       <c r="P20" t="n">
-        <v>502.5482327048932</v>
+        <v>720.5606943908519</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636235</v>
+        <v>463.1092954636223</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152068</v>
+        <v>125.3296184152061</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453598262</v>
+        <v>94.62350453597622</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609562</v>
+        <v>240.6709080609552</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340047</v>
+        <v>370.4021821340034</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013283</v>
+        <v>451.7942679013268</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004583</v>
+        <v>478.3061046004719</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525798</v>
+        <v>415.1124034525784</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859618</v>
+        <v>313.6359509859607</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127267</v>
+        <v>159.233896612726</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306603</v>
+        <v>45.57841661306568</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443192</v>
+        <v>206.0476595443187</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701978</v>
+        <v>319.757372170197</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934834</v>
+        <v>347.6333793934826</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675396</v>
+        <v>344.8569461675389</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226394</v>
+        <v>302.3531302226387</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451101</v>
+        <v>234.9570711451095</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.3942385378934</v>
+        <v>78.394238537893</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687121</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865553996</v>
+        <v>661.3366991265655</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427816</v>
+        <v>873.2513289427828</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230581</v>
+        <v>641.7740468812515</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248945</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282511</v>
+        <v>888.8531821509648</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193708</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037188</v>
+        <v>463.1092954636244</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222438</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597679</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609562</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340047</v>
+        <v>370.4021821340041</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013283</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004583</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525798</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859618</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127325</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306603</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443192</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701978</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934834</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675396</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226394</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451101</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.3942385378934</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>165.5609983721169</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36905,25 +36905,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>425.1908331501707</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -36932,7 +36932,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M32" t="n">
         <v>735.3001107902948</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,10 +37151,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>71.39556506237828</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37166,10 +37166,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>213.2742757378062</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,19 +37379,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,13 +37400,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37795,7 +37795,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>397.2883392634221</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
